--- a/Novo Banco de dados (database)/TesteBancodeDados/Planilhas/Dados_Clientes.xlsx
+++ b/Novo Banco de dados (database)/TesteBancodeDados/Planilhas/Dados_Clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,36 +705,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>16</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>gk</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>45678954323</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ee</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>44444444444</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>rr@gmail.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
